--- a/biology/Botanique/Chou_cabus/Chou_cabus.xlsx
+++ b/biology/Botanique/Chou_cabus/Chou_cabus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chou cabus ou chou pommé (Brassica oleracea var. capitata ou Brassica oleracea Groupe Capitata[1]) est une variété de chou caractérisée par une tête et un feuillage lisse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chou cabus ou chou pommé (Brassica oleracea var. capitata ou Brassica oleracea Groupe Capitata) est une variété de chou caractérisée par une tête et un feuillage lisse.
 </t>
         </is>
       </c>
@@ -511,15 +523,52 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante bisannuelle formant une rosette de feuilles, de 30 à 60 cm de haut et de large.
-Les différents types
-Les nombreuses variétés cultivées (cultivars) sont parfois classées en groupe de cultivars selon leurs formes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chou_cabus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chou_cabus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les différents types</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nombreuses variétés cultivées (cultivars) sont parfois classées en groupe de cultivars selon leurs formes :
 Brassica oleracea var. capitata f. acuta, le chou cabus pointu
 Brassica oleracea var. capitata f. alba, le chou cabus blanc
-Brassica oleracea var. capitata f. rubra[2], le chou cabus rouge
-Brassica oleracea var. capitata « Quintal d'Alsace », « Précoce de Louviers », « Pointu de Châteaurenard », « Nantais hâtif », « Cœur de bœuf des Vertus »… sont quelques noms de cultivars de choux cabus inscrits au Catalogue officiel des espèces et variétés parmi les 75 variétés en 2023[3].
+Brassica oleracea var. capitata f. rubra, le chou cabus rouge
+Brassica oleracea var. capitata « Quintal d'Alsace », « Précoce de Louviers », « Pointu de Châteaurenard », « Nantais hâtif », « Cœur de bœuf des Vertus »… sont quelques noms de cultivars de choux cabus inscrits au Catalogue officiel des espèces et variétés parmi les 75 variétés en 2023.
 			f. acuta, chou pointu.
 			f. alba, chou blanc.
 			f. rubra, chou rouge.
@@ -527,31 +576,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Chou_cabus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chou_cabus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On plante les choux à 50 cm d'écart en tous sens dans une terre riche, arrosée régulièrement et paillée. En hiver, dans les régions froides, on les couvre d’un voile d’hivernage.
 Il existe de nombreuses variétés en fonction de la saison et de leur résistance au froid ou au chaud :
@@ -561,33 +612,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Chou_cabus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chou_cabus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains choux blancs, comme la variété Coeur de boeuf atteignent parfois des records de taille. En 2017, par exemple, un spécimen cultivé en Grande Bretagne a battu un record, pesant 62 kg[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains choux blancs, comme la variété Coeur de boeuf atteignent parfois des records de taille. En 2017, par exemple, un spécimen cultivé en Grande Bretagne a battu un record, pesant 62 kg.
 L'artiste contemporain Bob Verschueren a composé un morceau de musique classique intitulé Chou (Brassica oleracea var. capitata) qui fait partie de l'album Catalogue de plantes, sorti en 2009 chez Fuga Libera.
 Le roman de René Fallet La Soupe aux choux et le film de Claude Zidi adapté en 1980 avec Louis de Funès, Jean Carmet et Jacques Villeret met en valeur la culture du choux et sa cuisine.
 </t>
